--- a/biology/Médecine/Caroline_Semaille/Caroline_Semaille.xlsx
+++ b/biology/Médecine/Caroline_Semaille/Caroline_Semaille.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Caroline Semaille, née en 1967, est une médecin de santé publique, épidémiologiste et infectiologue française. Elle est directrice générale de l'Agence nationale de santé publique depuis le 23 février 2023. 
 </t>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Née en 1967[1], Caroline Semaille est une médecin praticien hospitalier spécialiste en santé publique et en maladies infectieuses. 
-En 1999, elle effectue sa première mission humanitaire, s'occupant, seule, d'un dispensaire à la frontière irako-iranienne[1]. En 2000, elle rejoint l'Institut de veille sanitaire (désormais nommé Santé Publique France) en tant que médecin épidémiologiste du programme EuroHIV[2]. Elle y prend deux ans plus tard la direction de l'Unité VIH/Sida, IST et hépatites[3].
-Elle est membre du Haut Conseil de la santé publique (HCSP) de 2013 à 2019 et participe également à la Commission nationale de la déontologie et des alertes en matière de santé publique et d'environnement[4]. 
-De mai 2019 à avril 2021, elle est directrice générale déléguée chargée du Pôle produits réglementés à l'Anses[5]. En avril 2021, elle y est nommée directrice générale adjointe chargée des opérations[3]. Elle est titulaire d'une habilitation à diriger des recherches en science de la vie et de la santé[5].
-En février 2023, elle est nommée directrice de l'Agence nationale de santé publique[1],[6]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Née en 1967, Caroline Semaille est une médecin praticien hospitalier spécialiste en santé publique et en maladies infectieuses. 
+En 1999, elle effectue sa première mission humanitaire, s'occupant, seule, d'un dispensaire à la frontière irako-iranienne. En 2000, elle rejoint l'Institut de veille sanitaire (désormais nommé Santé Publique France) en tant que médecin épidémiologiste du programme EuroHIV. Elle y prend deux ans plus tard la direction de l'Unité VIH/Sida, IST et hépatites.
+Elle est membre du Haut Conseil de la santé publique (HCSP) de 2013 à 2019 et participe également à la Commission nationale de la déontologie et des alertes en matière de santé publique et d'environnement. 
+De mai 2019 à avril 2021, elle est directrice générale déléguée chargée du Pôle produits réglementés à l'Anses. En avril 2021, elle y est nommée directrice générale adjointe chargée des opérations. Elle est titulaire d'une habilitation à diriger des recherches en science de la vie et de la santé.
+En février 2023, elle est nommée directrice de l'Agence nationale de santé publique,. 
 </t>
         </is>
       </c>
